--- a/Technology/Hardware/Pure Storage.xlsx
+++ b/Technology/Hardware/Pure Storage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8B5D27-0D73-E74E-84CB-3A31B86CD767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E8FD5C-9ABA-9B46-A665-FD2FB0C2B8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2282,11 +2282,9 @@
     <v>Powered by Refinitiv</v>
     <v>32.448399999999999</v>
     <v>21.895</v>
-    <v>1.2248000000000001</v>
+    <v>1.2153</v>
     <v>-0.57999999999999996</v>
-    <v>-2.4308E-2</v>
-    <v>0.02</v>
-    <v>8.5910000000000001E-4</v>
+    <v>-2.3368000000000003E-2</v>
     <v>USD</v>
     <v>Pure Storage, Inc. is focused on delivering disruptive data storage, products and services. The Company’s products and subscription services support a range of structured and unstructured data, at scale and across any data workload in hybrid and public cloud environments and include production, test and development, analytics, disaster recovery (DR), and backup and recovery. Its products and subscription services include FlashArray Platform, Cloud Block Store, FlashBlade Platform, Evergreen Subscription, Evergreen//Flex, Evergreen//One, Pure Fusion, Portworx by Pure Storage and Portworx Data Services (PDS). It sells its products and subscription services using a direct sales force and its channel partners. It also sells to service providers that deploy its products and offer cloud-based storage services to their customers. FlashArray Platform provides solutions for block-oriented storage, addressing databases, applications, virtual machines and other traditional workloads.</v>
     <v>5100</v>
@@ -2294,25 +2292,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>650 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>23.824999999999999</v>
+    <v>24.715</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45037.990552615622</v>
+    <v>45065.989129154688</v>
     <v>0</v>
-    <v>23.16</v>
-    <v>7171294000</v>
+    <v>24</v>
+    <v>7447513000</v>
     <v>PURE STORAGE, INC.</v>
     <v>PURE STORAGE, INC.</v>
-    <v>23.62</v>
-    <v>154.56370000000001</v>
-    <v>23.86</v>
-    <v>23.28</v>
-    <v>23.3</v>
-    <v>308045300</v>
+    <v>24.66</v>
+    <v>157.02529999999999</v>
+    <v>24.82</v>
+    <v>24.24</v>
+    <v>307240600</v>
     <v>PSTG</v>
     <v>PURE STORAGE, INC. (XNYS:PSTG)</v>
-    <v>6981954</v>
-    <v>4669412</v>
+    <v>3</v>
+    <v>3895636</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2344,8 +2341,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2366,7 +2361,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2383,7 +2377,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2394,16 +2388,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2469,19 +2460,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2526,9 +2511,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2536,9 +2518,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2900,10 +2879,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N99" sqref="N99"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3713,15 +3692,15 @@
       </c>
       <c r="R16" s="31">
         <f>S101/K3</f>
-        <v>2.6044909738166959</v>
+        <v>2.7048089767178003</v>
       </c>
       <c r="S16" s="31">
         <f>S101/K28</f>
-        <v>98.141451465013475</v>
+        <v>101.92159680310931</v>
       </c>
       <c r="T16" s="32">
         <f>S101/K106</f>
-        <v>11.77368719165319</v>
+        <v>12.22717802641624</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6615,7 +6594,7 @@
       </c>
       <c r="S95" s="59" cm="1">
         <f t="array" ref="S95">_FV(A1,"Beta")</f>
-        <v>1.2248000000000001</v>
+        <v>1.2153</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6698,7 +6677,7 @@
       </c>
       <c r="S97" s="37">
         <f>(S94)+((S95)*(S96-S94))</f>
-        <v>9.3677640000000006E-2</v>
+        <v>9.3268665000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6821,7 +6800,7 @@
       </c>
       <c r="S100" s="35">
         <f>S99/S103</f>
-        <v>9.4759895884614712E-2</v>
+        <v>9.1567184451121525E-2</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6863,7 +6842,7 @@
       </c>
       <c r="S101" s="51" cm="1">
         <f t="array" ref="S101">_FV(A1,"Market cap",TRUE)</f>
-        <v>7171294000</v>
+        <v>7447513000</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6905,7 +6884,7 @@
       </c>
       <c r="S102" s="35">
         <f>S101/S103</f>
-        <v>0.90524010411538525</v>
+        <v>0.90843281554887845</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6947,7 +6926,7 @@
       </c>
       <c r="S103" s="39">
         <f>S99+S101</f>
-        <v>7921980000</v>
+        <v>8198199000</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7041,7 +7020,7 @@
       </c>
       <c r="S105" s="27">
         <f>(S100*S92)+(S102*S97)</f>
-        <v>8.8485647095359318E-2</v>
+        <v>8.8289052752986305E-2</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7127,7 +7106,7 @@
       <c r="O107" s="41"/>
       <c r="P107" s="44">
         <f>P106*(1+S107)/(S108-S107)</f>
-        <v>19317926577.544483</v>
+        <v>19377933717.900101</v>
       </c>
       <c r="Q107" s="45" t="s">
         <v>148</v>
@@ -7158,7 +7137,7 @@
       </c>
       <c r="P108" s="44">
         <f>P107+P106</f>
-        <v>20514425181.755264</v>
+        <v>20574432322.110882</v>
       </c>
       <c r="Q108" s="45" t="s">
         <v>144</v>
@@ -7168,7 +7147,7 @@
       </c>
       <c r="S108" s="49">
         <f>S105</f>
-        <v>8.8485647095359318E-2</v>
+        <v>8.8289052752986305E-2</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7183,7 +7162,7 @@
       </c>
       <c r="M110" s="51">
         <f>NPV(S108,L108,M108,N108,O108,P108)</f>
-        <v>16192833004.724985</v>
+        <v>16245553305.863665</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7210,7 +7189,7 @@
       </c>
       <c r="M113" s="51">
         <f>M110+M111-M112</f>
-        <v>17024353004.724983</v>
+        <v>17077073305.863663</v>
       </c>
     </row>
     <row r="114" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7228,7 +7207,7 @@
       </c>
       <c r="M115" s="54">
         <f>M113/M114</f>
-        <v>41.028923978350569</v>
+        <v>41.155980626373221</v>
       </c>
     </row>
     <row r="116" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7237,7 +7216,7 @@
       </c>
       <c r="M116" s="60" cm="1">
         <f t="array" ref="M116">_FV(A1,"Price",TRUE)</f>
-        <v>23.28</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="117" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7246,7 +7225,7 @@
       </c>
       <c r="M117" s="56">
         <f>M115/M116-1</f>
-        <v>0.76241082381230951</v>
+        <v>0.69785398623651917</v>
       </c>
     </row>
     <row r="118" spans="12:13" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Pure Storage.xlsx
+++ b/Technology/Hardware/Pure Storage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E8FD5C-9ABA-9B46-A665-FD2FB0C2B8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF25096A-EFA2-554A-B8AC-98F57F88B687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2280,36 +2280,36 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>32.448399999999999</v>
-    <v>21.895</v>
-    <v>1.2153</v>
-    <v>-0.57999999999999996</v>
-    <v>-2.3368000000000003E-2</v>
+    <v>38.36</v>
+    <v>22.14</v>
+    <v>1.2574000000000001</v>
+    <v>0.55000000000000004</v>
+    <v>1.5235E-2</v>
     <v>USD</v>
     <v>Pure Storage, Inc. is focused on delivering disruptive data storage, products and services. The Company’s products and subscription services support a range of structured and unstructured data, at scale and across any data workload in hybrid and public cloud environments and include production, test and development, analytics, disaster recovery (DR), and backup and recovery. Its products and subscription services include FlashArray Platform, Cloud Block Store, FlashBlade Platform, Evergreen Subscription, Evergreen//Flex, Evergreen//One, Pure Fusion, Portworx by Pure Storage and Portworx Data Services (PDS). It sells its products and subscription services using a direct sales force and its channel partners. It also sells to service providers that deploy its products and offer cloud-based storage services to their customers. FlashArray Platform provides solutions for block-oriented storage, addressing databases, applications, virtual machines and other traditional workloads.</v>
-    <v>5100</v>
+    <v>5200</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>650 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>24.715</v>
+    <v>2555 Augustine Drive, SANTA CLARA, CA, 95054 US</v>
+    <v>36.69</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45065.989129154688</v>
+    <v>45099.998852383593</v>
     <v>0</v>
-    <v>24</v>
-    <v>7447513000</v>
+    <v>35.26</v>
+    <v>11101940000</v>
     <v>PURE STORAGE, INC.</v>
     <v>PURE STORAGE, INC.</v>
-    <v>24.66</v>
-    <v>157.02529999999999</v>
-    <v>24.82</v>
-    <v>24.24</v>
-    <v>307240600</v>
+    <v>35.9</v>
+    <v>190.45150000000001</v>
+    <v>36.1</v>
+    <v>36.65</v>
+    <v>307532800</v>
     <v>PSTG</v>
     <v>PURE STORAGE, INC. (XNYS:PSTG)</v>
-    <v>3</v>
-    <v>3895636</v>
+    <v>87</v>
+    <v>6056516</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2879,10 +2879,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3692,15 +3692,15 @@
       </c>
       <c r="R16" s="31">
         <f>S101/K3</f>
-        <v>2.7048089767178003</v>
+        <v>4.0320341798641257</v>
       </c>
       <c r="S16" s="31">
         <f>S101/K28</f>
-        <v>101.92159680310931</v>
+        <v>151.93359882853662</v>
       </c>
       <c r="T16" s="32">
         <f>S101/K106</f>
-        <v>12.22717802641624</v>
+        <v>18.226943251873681</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="S95" s="59" cm="1">
         <f t="array" ref="S95">_FV(A1,"Beta")</f>
-        <v>1.2153</v>
+        <v>1.2574000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="S97" s="37">
         <f>(S94)+((S95)*(S96-S94))</f>
-        <v>9.3268665000000001E-2</v>
+        <v>9.5081070000000018E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="S100" s="35">
         <f>S99/S103</f>
-        <v>9.1567184451121525E-2</v>
+        <v>6.3334994287341892E-2</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="S101" s="51" cm="1">
         <f t="array" ref="S101">_FV(A1,"Market cap",TRUE)</f>
-        <v>7447513000</v>
+        <v>11101940000</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="S102" s="35">
         <f>S101/S103</f>
-        <v>0.90843281554887845</v>
+        <v>0.93666500571265809</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="S103" s="39">
         <f>S99+S101</f>
-        <v>8198199000</v>
+        <v>11852626000</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="S105" s="27">
         <f>(S100*S92)+(S102*S97)</f>
-        <v>8.8289052752986305E-2</v>
+        <v>9.1521993791598158E-2</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7106,7 +7106,7 @@
       <c r="O107" s="41"/>
       <c r="P107" s="44">
         <f>P106*(1+S107)/(S108-S107)</f>
-        <v>19377933717.900101</v>
+        <v>18436174254.761276</v>
       </c>
       <c r="Q107" s="45" t="s">
         <v>148</v>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="P108" s="44">
         <f>P107+P106</f>
-        <v>20574432322.110882</v>
+        <v>19632672858.972057</v>
       </c>
       <c r="Q108" s="45" t="s">
         <v>144</v>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="S108" s="49">
         <f>S105</f>
-        <v>8.8289052752986305E-2</v>
+        <v>9.1521993791598158E-2</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7162,7 +7162,7 @@
       </c>
       <c r="M110" s="51">
         <f>NPV(S108,L108,M108,N108,O108,P108)</f>
-        <v>16245553305.863665</v>
+        <v>15418367240.436506</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="M113" s="51">
         <f>M110+M111-M112</f>
-        <v>17077073305.863663</v>
+        <v>16249887240.436506</v>
       </c>
     </row>
     <row r="114" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="M115" s="54">
         <f>M113/M114</f>
-        <v>41.155980626373221</v>
+        <v>39.162450876083014</v>
       </c>
     </row>
     <row r="116" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="M116" s="60" cm="1">
         <f t="array" ref="M116">_FV(A1,"Price",TRUE)</f>
-        <v>24.24</v>
+        <v>36.65</v>
       </c>
     </row>
     <row r="117" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="M117" s="56">
         <f>M115/M116-1</f>
-        <v>0.69785398623651917</v>
+        <v>6.8552547778526929E-2</v>
       </c>
     </row>
     <row r="118" spans="12:13" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Pure Storage.xlsx
+++ b/Technology/Hardware/Pure Storage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF25096A-EFA2-554A-B8AC-98F57F88B687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A212E0-A6E6-1E4E-A107-145ADE56681E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2282,9 +2282,11 @@
     <v>Powered by Refinitiv</v>
     <v>38.36</v>
     <v>22.14</v>
-    <v>1.2574000000000001</v>
-    <v>0.55000000000000004</v>
-    <v>1.5235E-2</v>
+    <v>1.2386999999999999</v>
+    <v>0.35</v>
+    <v>9.8429999999999993E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Pure Storage, Inc. is focused on delivering disruptive data storage, products and services. The Company’s products and subscription services support a range of structured and unstructured data, at scale and across any data workload in hybrid and public cloud environments and include production, test and development, analytics, disaster recovery (DR), and backup and recovery. Its products and subscription services include FlashArray Platform, Cloud Block Store, FlashBlade Platform, Evergreen Subscription, Evergreen//Flex, Evergreen//One, Pure Fusion, Portworx by Pure Storage and Portworx Data Services (PDS). It sells its products and subscription services using a direct sales force and its channel partners. It also sells to service providers that deploy its products and offer cloud-based storage services to their customers. FlashArray Platform provides solutions for block-oriented storage, addressing databases, applications, virtual machines and other traditional workloads.</v>
     <v>5200</v>
@@ -2292,24 +2294,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2555 Augustine Drive, SANTA CLARA, CA, 95054 US</v>
-    <v>36.69</v>
+    <v>36.14</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45099.998852383593</v>
+    <v>45104.97707070547</v>
     <v>0</v>
-    <v>35.26</v>
-    <v>11101940000</v>
+    <v>35.655000000000001</v>
+    <v>11043502847</v>
     <v>PURE STORAGE, INC.</v>
     <v>PURE STORAGE, INC.</v>
-    <v>35.9</v>
+    <v>35.840000000000003</v>
     <v>190.45150000000001</v>
-    <v>36.1</v>
-    <v>36.65</v>
+    <v>35.56</v>
+    <v>35.909999999999997</v>
+    <v>35.909999999999997</v>
     <v>307532800</v>
     <v>PSTG</v>
     <v>PURE STORAGE, INC. (XNYS:PSTG)</v>
-    <v>87</v>
-    <v>6056516</v>
+    <v>3002362</v>
+    <v>6278225</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2341,6 +2344,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2361,6 +2366,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2377,7 +2383,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2388,13 +2394,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2460,13 +2469,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2511,6 +2526,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2518,6 +2536,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2882,7 +2903,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="I85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
+      <selection pane="bottomRight" activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3692,15 +3713,15 @@
       </c>
       <c r="R16" s="31">
         <f>S101/K3</f>
-        <v>4.0320341798641257</v>
+        <v>4.0108108082488991</v>
       </c>
       <c r="S16" s="31">
         <f>S101/K28</f>
-        <v>151.93359882853662</v>
+        <v>151.13386770401391</v>
       </c>
       <c r="T16" s="32">
         <f>S101/K106</f>
-        <v>18.226943251873681</v>
+        <v>18.131002301775585</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6594,7 +6615,7 @@
       </c>
       <c r="S95" s="59" cm="1">
         <f t="array" ref="S95">_FV(A1,"Beta")</f>
-        <v>1.2574000000000001</v>
+        <v>1.2386999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6677,7 +6698,7 @@
       </c>
       <c r="S97" s="37">
         <f>(S94)+((S95)*(S96-S94))</f>
-        <v>9.5081070000000018E-2</v>
+        <v>9.4276035000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6800,7 +6821,7 @@
       </c>
       <c r="S100" s="35">
         <f>S99/S103</f>
-        <v>6.3334994287341892E-2</v>
+        <v>6.3648802790786788E-2</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6842,7 +6863,7 @@
       </c>
       <c r="S101" s="51" cm="1">
         <f t="array" ref="S101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11101940000</v>
+        <v>11043502847</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6884,7 +6905,7 @@
       </c>
       <c r="S102" s="35">
         <f>S101/S103</f>
-        <v>0.93666500571265809</v>
+        <v>0.93635119720921323</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6926,7 +6947,7 @@
       </c>
       <c r="S103" s="39">
         <f>S99+S101</f>
-        <v>11852626000</v>
+        <v>11794188847</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7020,7 +7041,7 @@
       </c>
       <c r="S105" s="27">
         <f>(S100*S92)+(S102*S97)</f>
-        <v>9.1521993791598158E-2</v>
+        <v>9.0750564004150075E-2</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7106,7 +7127,7 @@
       <c r="O107" s="41"/>
       <c r="P107" s="44">
         <f>P106*(1+S107)/(S108-S107)</f>
-        <v>18436174254.761276</v>
+        <v>18652479836.350025</v>
       </c>
       <c r="Q107" s="45" t="s">
         <v>148</v>
@@ -7137,7 +7158,7 @@
       </c>
       <c r="P108" s="44">
         <f>P107+P106</f>
-        <v>19632672858.972057</v>
+        <v>19848978440.560806</v>
       </c>
       <c r="Q108" s="45" t="s">
         <v>144</v>
@@ -7147,7 +7168,7 @@
       </c>
       <c r="S108" s="49">
         <f>S105</f>
-        <v>9.1521993791598158E-2</v>
+        <v>9.0750564004150075E-2</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7162,7 +7183,7 @@
       </c>
       <c r="M110" s="51">
         <f>NPV(S108,L108,M108,N108,O108,P108)</f>
-        <v>15418367240.436506</v>
+        <v>15608315824.556616</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7189,7 +7210,7 @@
       </c>
       <c r="M113" s="51">
         <f>M110+M111-M112</f>
-        <v>16249887240.436506</v>
+        <v>16439835824.556618</v>
       </c>
     </row>
     <row r="114" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7207,7 +7228,7 @@
       </c>
       <c r="M115" s="54">
         <f>M113/M114</f>
-        <v>39.162450876083014</v>
+        <v>39.620229566145206</v>
       </c>
     </row>
     <row r="116" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7216,7 +7237,7 @@
       </c>
       <c r="M116" s="60" cm="1">
         <f t="array" ref="M116">_FV(A1,"Price",TRUE)</f>
-        <v>36.65</v>
+        <v>35.909999999999997</v>
       </c>
     </row>
     <row r="117" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7225,7 +7246,7 @@
       </c>
       <c r="M117" s="56">
         <f>M115/M116-1</f>
-        <v>6.8552547778526929E-2</v>
+        <v>0.10332023297536086</v>
       </c>
     </row>
     <row r="118" spans="12:13" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Pure Storage.xlsx
+++ b/Technology/Hardware/Pure Storage.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A212E0-A6E6-1E4E-A107-145ADE56681E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6673D3C9-DA2F-BD4B-9D15-0F7AE1A270CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +547,46 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -943,101 +925,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,9 +1068,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>PSTG</a:t>
+              <a:t>Pure Storage</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1127,10 +1106,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.485408519797133E-2"/>
-          <c:y val="0.11483992864316538"/>
-          <c:w val="0.85974607680552928"/>
-          <c:h val="0.75966155948619407"/>
+          <c:x val="8.8665025173002829E-2"/>
+          <c:y val="0.14345593311880719"/>
+          <c:w val="0.84812509500664757"/>
+          <c:h val="0.71141422494813866"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1184,6 +1163,45 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$K$3</c:f>
@@ -1225,7 +1243,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F6E-6A42-B3A2-BE3C9959128B}"/>
+              <c16:uniqueId val="{00000000-20F7-C842-9812-AB00C574C4A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1234,11 +1252,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1276,48 +1294,87 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$K$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-73839000</c:v>
+                  <c:v>-78561000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-166502000</c:v>
+                  <c:v>-183231000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-179929000</c:v>
+                  <c:v>-213752000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-192976000</c:v>
+                  <c:v>-245066000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-111969000</c:v>
+                  <c:v>-177602000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-106395000</c:v>
+                  <c:v>-178362000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-78894000</c:v>
+                  <c:v>-200987000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-168715000</c:v>
+                  <c:v>-282076000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8668000</c:v>
+                  <c:v>-143259000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>192240000</c:v>
+                  <c:v>73071000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7F6E-6A42-B3A2-BE3C9959128B}"/>
+              <c16:uniqueId val="{00000001-20F7-C842-9812-AB00C574C4A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1326,11 +1383,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1368,9 +1425,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$K$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$K$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1409,7 +1505,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7F6E-6A42-B3A2-BE3C9959128B}"/>
+              <c16:uniqueId val="{00000002-20F7-C842-9812-AB00C574C4A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1423,11 +1519,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="62632288"/>
-        <c:axId val="62340128"/>
+        <c:axId val="729472672"/>
+        <c:axId val="772258272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62632288"/>
+        <c:axId val="729472672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1551,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1467,7 +1563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62340128"/>
+        <c:crossAx val="772258272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1475,7 +1571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62340128"/>
+        <c:axId val="772258272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62632288"/>
+        <c:crossAx val="729472672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1541,10 +1637,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35676207784497749"/>
-          <c:y val="0.90099358430516507"/>
-          <c:w val="0.30230426559018847"/>
-          <c:h val="4.7754231652901276E-2"/>
+          <c:x val="0.35429044317632963"/>
+          <c:y val="0.90251434623491966"/>
+          <c:w val="0.31248907358745726"/>
+          <c:h val="5.9653710543700708E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2124,22 +2220,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>231774</xdr:rowOff>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F2CDFC6-274D-278B-BB98-4923D9163AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B4A223-F2D5-BA14-6624-43C7CD71B13E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,6 +2254,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2900,10 +3050,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O92" sqref="O92"/>
+      <selection pane="bottomRight" activeCell="P102" sqref="P102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2947,19 +3097,19 @@
       <c r="K1" s="8">
         <v>2023</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="24">
         <v>2024</v>
       </c>
-      <c r="M1" s="28">
+      <c r="M1" s="24">
         <v>2025</v>
       </c>
-      <c r="N1" s="28">
+      <c r="N1" s="24">
         <v>2026</v>
       </c>
-      <c r="O1" s="28">
+      <c r="O1" s="24">
         <v>2027</v>
       </c>
-      <c r="P1" s="28">
+      <c r="P1" s="24">
         <v>2028</v>
       </c>
     </row>
@@ -2968,43 +3118,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -3047,94 +3197,94 @@
       <c r="K3" s="1">
         <v>2753434000</v>
       </c>
-      <c r="L3" s="29">
-        <v>2930000000</v>
-      </c>
-      <c r="M3" s="29">
-        <v>3400000000</v>
-      </c>
-      <c r="N3" s="29">
-        <v>3637000000</v>
-      </c>
-      <c r="O3" s="29">
-        <v>4565000000</v>
-      </c>
-      <c r="P3" s="29">
-        <v>5357000000</v>
+      <c r="L3" s="25">
+        <v>2956000000</v>
+      </c>
+      <c r="M3" s="25">
+        <v>3401000000</v>
+      </c>
+      <c r="N3" s="25">
+        <v>3789000000</v>
+      </c>
+      <c r="O3" s="25">
+        <v>5204000000</v>
+      </c>
+      <c r="P3" s="25">
+        <v>6376000000</v>
       </c>
       <c r="Q3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="S3" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="T3" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="65">
         <f>(C3/B3)-1</f>
         <v>3.0823485362600334</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="65">
         <f>(D3/C3)-1</f>
         <v>1.5241070558494934</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="65">
         <f>(E3/D3)-1</f>
         <v>0.65324197823011221</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="65">
         <f t="shared" ref="F4:P4" si="0">(F3/E3)-1</f>
         <v>0.40529027702798293</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="65">
         <f t="shared" si="0"/>
         <v>0.32922653440454175</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="65">
         <f t="shared" si="0"/>
         <v>0.20856816764522468</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="65">
         <f t="shared" si="0"/>
         <v>2.4788857518376117E-2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="65">
         <f t="shared" si="0"/>
         <v>0.29490273896064489</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="65">
         <f t="shared" si="0"/>
         <v>0.26255199812183161</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>6.412574261812698E-2</v>
+        <v>7.3568496648185544E-2</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.16040955631399312</v>
+        <v>0.15054127198917455</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>6.9705882352941284E-2</v>
+        <v>0.11408409291384891</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.25515534781413263</v>
+        <v>0.37344945896014781</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>0.17349397590361448</v>
+        <v>0.2252113758647194</v>
       </c>
       <c r="Q4" s="17">
         <f>(K4+J4+I4)/3</f>
@@ -3149,7 +3299,7 @@
         <v>-0.53291149193152765</v>
       </c>
       <c r="T4" s="17">
-        <f>(K105+J105+I105)/3</f>
+        <f>(K106+J106+I106)/3</f>
         <v>1.0999964868815539</v>
       </c>
       <c r="V4" s="16"/>
@@ -3238,16 +3388,16 @@
         <v>1897646000</v>
       </c>
       <c r="Q6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="S6" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="T6" s="20" t="s">
         <v>115</v>
-      </c>
-      <c r="T6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3297,7 +3447,7 @@
         <v>2.6499999999999999E-2</v>
       </c>
       <c r="T7" s="21">
-        <f>K106/K3</f>
+        <f>K107/K3</f>
         <v>0.2212128563822485</v>
       </c>
     </row>
@@ -3338,7 +3488,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3383,16 +3533,16 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="Q9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="S9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="T9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="T9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3516,21 +3666,21 @@
         <v>1121605000</v>
       </c>
       <c r="Q12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="S12" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="T12" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="T12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3596,34 +3746,34 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3661,16 +3811,16 @@
         <v>1814133000</v>
       </c>
       <c r="Q15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="S15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="S15" s="20" t="s">
+      <c r="T15" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3707,44 +3857,44 @@
       <c r="K16" s="1">
         <v>2669921000</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="26">
         <f>(K35+J35+I35+H35+G35)/5</f>
         <v>7.4260390000195048E-2</v>
       </c>
-      <c r="R16" s="31">
+      <c r="R16" s="55">
         <f>S101/K3</f>
         <v>4.0108108082488991</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S16" s="55">
         <f>S101/K28</f>
         <v>151.13386770401391</v>
       </c>
-      <c r="T16" s="32">
-        <f>S101/K106</f>
+      <c r="T16" s="56">
+        <f>S101/K107</f>
         <v>18.131002301775585</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1">
         <v>26062000</v>
@@ -3759,7 +3909,7 @@
         <v>36677000</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3794,10 +3944,19 @@
         <v>100432000</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="R18" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="T18" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3831,14 +3990,41 @@
       <c r="K19" s="10">
         <v>192240000</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="L19" s="59">
+        <v>569800000</v>
+      </c>
+      <c r="M19" s="59">
+        <v>704000000</v>
+      </c>
+      <c r="N19" s="59">
+        <v>773000000</v>
+      </c>
+      <c r="O19" s="59">
+        <v>1452000000</v>
+      </c>
+      <c r="P19" s="59">
+        <v>2098000000</v>
+      </c>
+      <c r="Q19" s="27">
         <f>K40-K56-K61</f>
         <v>831520000</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="55">
+        <f>S101/L3</f>
+        <v>3.7359617209066305</v>
+      </c>
+      <c r="S19" s="55">
+        <f>S101/L28</f>
+        <v>24.83918769005848</v>
+      </c>
+      <c r="T19" s="56">
+        <f>S101/L106</f>
+        <v>35.014276623335448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3854,7 +4040,7 @@
         <v>7.2511935263353866E-2</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:K20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:M20" si="3">(F19/E19)-1</f>
         <v>-0.4197775889229749</v>
       </c>
       <c r="G20" s="15">
@@ -3877,8 +4063,27 @@
         <f t="shared" si="3"/>
         <v>-23.178126442085834</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="L20" s="16">
+        <f t="shared" si="3"/>
+        <v>1.9640033291718684</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.23552123552123549</v>
+      </c>
+      <c r="N20" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" ref="O20:P20" si="4">(O19/N19)-1</f>
+        <v>0.87839586028460537</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="4"/>
+        <v>0.44490358126721774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3912,8 +4117,34 @@
       <c r="K21" s="2">
         <v>6.9800000000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="L21" s="63">
+        <f>L19/L3</f>
+        <v>0.19276048714479024</v>
+      </c>
+      <c r="M21" s="63">
+        <f t="shared" ref="M21:P21" si="5">M19/M3</f>
+        <v>0.20699794178182887</v>
+      </c>
+      <c r="N21" s="63">
+        <f t="shared" si="5"/>
+        <v>0.20401161256268144</v>
+      </c>
+      <c r="O21" s="63">
+        <f t="shared" si="5"/>
+        <v>0.27901614142966946</v>
+      </c>
+      <c r="P21" s="63">
+        <f t="shared" si="5"/>
+        <v>0.3290464240903388</v>
+      </c>
+      <c r="S21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="T21" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3947,8 +4178,16 @@
       <c r="K22" s="10">
         <v>83513000</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="S22" s="57">
+        <f>K98/S101</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="58">
+        <f>K107/S101</f>
+        <v>5.5154148863687975E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3983,7 +4222,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4018,7 +4257,7 @@
         <v>8295000</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4053,7 +4292,7 @@
         <v>91808000</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4088,7 +4327,7 @@
         <v>3.3300000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4123,7 +4362,7 @@
         <v>18737000</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4157,10 +4396,25 @@
       <c r="K28" s="11">
         <v>73071000</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="61">
+        <v>444600000</v>
+      </c>
+      <c r="M28" s="61">
+        <v>533100000</v>
+      </c>
+      <c r="N28" s="61">
+        <v>558200000</v>
+      </c>
+      <c r="O28" s="61">
+        <v>790700000</v>
+      </c>
+      <c r="P28" s="61">
+        <v>1064000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4176,31 +4430,51 @@
         <v>0.14649687488304197</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:K29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:P29" si="6">(F28/E28)-1</f>
         <v>-0.27528910579190913</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.2792310897399322E-3</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.12684876823538649</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.40345395473339063</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.4921262354826359</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.5100621950453375</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="L29" s="16">
+        <f t="shared" si="6"/>
+        <v>5.0844931641827813</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" si="6"/>
+        <v>0.19905533063427794</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" si="6"/>
+        <v>4.708309885574935E-2</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" si="6"/>
+        <v>0.41651737728412752</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="6"/>
+        <v>0.34564310104970275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4234,8 +4508,28 @@
       <c r="K30" s="2">
         <v>2.6499999999999999E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="L30" s="60">
+        <f>L28/L3</f>
+        <v>0.15040595399188092</v>
+      </c>
+      <c r="M30" s="60">
+        <f t="shared" ref="M30:P30" si="7">M28/M3</f>
+        <v>0.15674801528962071</v>
+      </c>
+      <c r="N30" s="60">
+        <f t="shared" si="7"/>
+        <v>0.14732119292689363</v>
+      </c>
+      <c r="O30" s="60">
+        <f t="shared" si="7"/>
+        <v>0.15194081475787855</v>
+      </c>
+      <c r="P30" s="60">
+        <f t="shared" si="7"/>
+        <v>0.16687578419071519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4266,11 +4560,26 @@
       <c r="J31" s="12">
         <v>-0.5</v>
       </c>
-      <c r="K31" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="K31" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="L31" s="62">
+        <v>1.45</v>
+      </c>
+      <c r="M31" s="62">
+        <v>1.73</v>
+      </c>
+      <c r="N31" s="62">
+        <v>1.82</v>
+      </c>
+      <c r="O31" s="62">
+        <v>2.57</v>
+      </c>
+      <c r="P31" s="62">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4301,8 +4610,8 @@
       <c r="J32" s="12">
         <v>-0.5</v>
       </c>
-      <c r="K32" s="12" t="s">
-        <v>92</v>
+      <c r="K32" s="12">
+        <v>0.24</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4377,7 +4686,7 @@
     </row>
     <row r="35" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -4385,35 +4694,35 @@
         <v>-6.2508444044134207E-2</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:K35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:K35" si="8">(D34-C34)/C34</f>
         <v>-0.4341163472162175</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3613145767644919</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.6768285793522804E-2</v>
       </c>
       <c r="G35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.6560165210364396E-2</v>
       </c>
       <c r="H35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.9544134251557911E-2</v>
       </c>
       <c r="I35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.9346570682699155E-2</v>
       </c>
       <c r="J35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.7424876037995102E-2</v>
       </c>
       <c r="K35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.8426203818358627E-2</v>
       </c>
     </row>
@@ -4422,34 +4731,34 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -4457,34 +4766,34 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4527,13 +4836,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1">
         <v>362986000</v>
@@ -4772,19 +5081,19 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1">
         <v>10997000</v>
@@ -4807,7 +5116,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>8284000</v>
@@ -4842,7 +5151,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>8284000</v>
@@ -4877,34 +5186,34 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4930,16 +5239,16 @@
         <v>1060000</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5017,34 +5326,34 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5122,25 +5431,25 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1">
         <v>32231000</v>
@@ -5157,25 +5466,25 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1">
         <v>4097000</v>
@@ -5184,7 +5493,7 @@
         <v>6312000</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5297,19 +5606,19 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1">
         <v>449828000</v>
@@ -5367,34 +5676,34 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1">
         <v>5323000</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5472,34 +5781,34 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5674,7 +5983,7 @@
         <v>2470943000</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5752,34 +6061,34 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -5787,34 +6096,34 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5892,34 +6201,34 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1">
         <v>-3696000</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5959,42 +6268,42 @@
     </row>
     <row r="80" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:J80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:J80" si="9">B79/B3</f>
         <v>0.1941824819226359</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.14559389169451595</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.13222947178612551</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.16026330502199931</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.14728269953930476</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.15490607608043394</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.13794540719466486</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.14389444352411471</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.13158321900471742</v>
       </c>
       <c r="K80" s="15"/>
@@ -6103,10 +6412,10 @@
       <c r="K83" s="1">
         <v>-12562000</v>
       </c>
-      <c r="R83" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="S83" s="64"/>
+      <c r="R83" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="S83" s="68"/>
     </row>
     <row r="84" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6142,10 +6451,10 @@
       <c r="K84" s="1">
         <v>-7075000</v>
       </c>
-      <c r="R84" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="S84" s="66"/>
+      <c r="R84" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="S84" s="69"/>
     </row>
     <row r="85" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6181,10 +6490,10 @@
       <c r="K85" s="1">
         <v>380246000</v>
       </c>
-      <c r="R85" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="S85" s="25">
+      <c r="R85" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="S85" s="34">
         <f>K17</f>
         <v>36677000</v>
       </c>
@@ -6223,10 +6532,10 @@
       <c r="K86" s="1">
         <v>7355000</v>
       </c>
-      <c r="R86" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="S86" s="25">
+      <c r="R86" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="S86" s="34">
         <f>K56</f>
         <v>608213000</v>
       </c>
@@ -6265,10 +6574,10 @@
       <c r="K87" s="10">
         <v>767234000</v>
       </c>
-      <c r="R87" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="S87" s="25">
+      <c r="R87" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="S87" s="34">
         <f>K61</f>
         <v>142473000</v>
       </c>
@@ -6307,52 +6616,52 @@
       <c r="K88" s="1">
         <v>-158139000</v>
       </c>
-      <c r="R88" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="S88" s="35">
+      <c r="R88" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="S88" s="36">
         <f>S85/(S86+S87)</f>
         <v>4.8857977902878165E-2</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:J89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:J89" si="10">(-1*B88)/B3</f>
         <v>0.28720192825217045</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.24205650870444995</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.9375540783906721E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.10683441921928852</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.359608179320228E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.3719834331501727E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.8929440685391618E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.6392461846395188E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.6902397599465899E-2</v>
       </c>
       <c r="K89" s="15"/>
@@ -6362,10 +6671,10 @@
       <c r="O89" s="15"/>
       <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
-      <c r="R89" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="S89" s="25">
+      <c r="R89" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="S89" s="34">
         <f>K27</f>
         <v>18737000</v>
       </c>
@@ -6375,19 +6684,19 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1">
         <v>-14000000</v>
@@ -6399,15 +6708,15 @@
         <v>-339641000</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1">
         <v>-1989000</v>
       </c>
-      <c r="R90" s="24" t="s">
+      <c r="R90" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="S90" s="25">
+      <c r="S90" s="34">
         <f>K25</f>
         <v>91808000</v>
       </c>
@@ -6417,13 +6726,13 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1">
         <v>-526717000</v>
@@ -6446,10 +6755,10 @@
       <c r="K91" s="1">
         <v>-501435000</v>
       </c>
-      <c r="R91" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="S91" s="35">
+      <c r="R91" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="S91" s="36">
         <f>S89/S90</f>
         <v>0.20408896828163123</v>
       </c>
@@ -6459,13 +6768,13 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1">
         <v>162867000</v>
@@ -6488,10 +6797,10 @@
       <c r="K92" s="1">
         <v>440150000</v>
       </c>
-      <c r="R92" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="S92" s="37">
+      <c r="R92" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="S92" s="36">
         <f>S88*(1-S91)</f>
         <v>3.8886603600353023E-2</v>
       </c>
@@ -6528,12 +6837,12 @@
         <v>-600000</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R93" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="S93" s="66"/>
+        <v>91</v>
+      </c>
+      <c r="R93" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="S93" s="69"/>
     </row>
     <row r="94" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6569,11 +6878,12 @@
       <c r="K94" s="10">
         <v>-221413000</v>
       </c>
-      <c r="R94" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="S94" s="38">
-        <v>4.095E-2</v>
+      <c r="R94" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="S94" s="70">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6581,19 +6891,19 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1">
         <v>-6101000</v>
@@ -6602,7 +6912,7 @@
         <v>-11555000</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1">
         <v>-2137000</v>
@@ -6610,10 +6920,10 @@
       <c r="K95" s="1">
         <v>-257240000</v>
       </c>
-      <c r="R95" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="S95" s="59" cm="1">
+      <c r="R95" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="S95" s="39" cm="1">
         <f t="array" ref="S95">_FV(A1,"Beta")</f>
         <v>1.2386999999999999</v>
       </c>
@@ -6623,39 +6933,39 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>459425000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R96" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="S96" s="38">
+        <v>91</v>
+      </c>
+      <c r="R96" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="S96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6670,13 +6980,13 @@
         <v>-30120000</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1">
         <v>-20000000</v>
@@ -6693,12 +7003,12 @@
       <c r="K97" s="1">
         <v>-219068000</v>
       </c>
-      <c r="R97" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="S97" s="37">
+      <c r="R97" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="S97" s="36">
         <f>(S94)+((S95)*(S96-S94))</f>
-        <v>9.4276035000000008E-2</v>
+        <v>9.4712856000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6706,39 +7016,39 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R98" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="S98" s="66"/>
+        <v>91</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="R98" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="S98" s="69"/>
     </row>
     <row r="99" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6774,10 +7084,10 @@
       <c r="K99" s="1">
         <v>45142000</v>
       </c>
-      <c r="R99" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="S99" s="25">
+      <c r="R99" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="S99" s="34">
         <f>S86+S87</f>
         <v>750686000</v>
       </c>
@@ -6816,10 +7126,10 @@
       <c r="K100" s="10">
         <v>-431166000</v>
       </c>
-      <c r="R100" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="S100" s="35">
+      <c r="R100" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="S100" s="36">
         <f>S99/S103</f>
         <v>6.3648802790786788E-2</v>
       </c>
@@ -6829,39 +7139,39 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R101" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="S101" s="51" cm="1">
+        <v>91</v>
+      </c>
+      <c r="R101" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="S101" s="40" cm="1">
         <f t="array" ref="S101">_FV(A1,"Market cap",TRUE)</f>
         <v>11043502847</v>
       </c>
@@ -6900,10 +7210,10 @@
       <c r="K102" s="10">
         <v>114655000</v>
       </c>
-      <c r="R102" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="S102" s="35">
+      <c r="R102" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="S102" s="36">
         <f>S101/S103</f>
         <v>0.93635119720921323</v>
       </c>
@@ -6942,15 +7252,15 @@
       <c r="K103" s="1">
         <v>476743000</v>
       </c>
-      <c r="R103" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="S103" s="39">
+      <c r="R103" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="S103" s="41">
         <f>S99+S101</f>
         <v>11794188847</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -6984,276 +7294,320 @@
       <c r="K104" s="11">
         <v>591398000</v>
       </c>
-      <c r="R104" s="65" t="s">
+      <c r="R104" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="S104" s="69"/>
+    </row>
+    <row r="105" spans="1:19" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:J105" si="11">(B22*(1-$S$91))+B77+B88+B81</f>
+        <v>-71514732.997124434</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="11"/>
+        <v>-172014614.82659462</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="11"/>
+        <v>-69776376.557598472</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="11"/>
+        <v>-160164796.03084698</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="11"/>
+        <v>-114798294.81090972</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="11"/>
+        <v>-118811513.49555594</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="11"/>
+        <v>-113750249.88018474</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="11"/>
+        <v>-119276044.34254095</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="11"/>
+        <v>40696946.300975949</v>
+      </c>
+      <c r="K105" s="1">
+        <f>(K22*(1-$S$91))+K77+K88+K81</f>
+        <v>267520917.99189612</v>
+      </c>
+      <c r="L105" s="28">
+        <f>K105*(1+$S$106)</f>
+        <v>317646563.6718055</v>
+      </c>
+      <c r="M105" s="28">
+        <f t="shared" ref="M105:P105" si="12">L105*(1+$S$106)</f>
+        <v>377164298.66453612</v>
+      </c>
+      <c r="N105" s="28">
+        <f t="shared" si="12"/>
+        <v>447833927.56638807</v>
+      </c>
+      <c r="O105" s="28">
+        <f t="shared" si="12"/>
+        <v>531744991.21381092</v>
+      </c>
+      <c r="P105" s="28">
+        <f t="shared" si="12"/>
+        <v>631378549.67243373</v>
+      </c>
+      <c r="Q105" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="R105" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="S105" s="43">
+        <f>(S100*S92)+(S102*S97)</f>
+        <v>9.1159581870466203E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:K106" si="13">(C107/B107)-1</f>
+        <v>1.4533596639078263</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="13"/>
+        <v>-0.75795064779258337</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="13"/>
+        <v>0.95155789964203263</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="13"/>
+        <v>-1.0835296032995061</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="13"/>
+        <v>7.3390072765072762</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="13"/>
+        <v>0.44486342459136452</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="13"/>
+        <v>-6.5784507209332155E-4</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="13"/>
+        <v>2.3220382880452379</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="13"/>
+        <v>0.97860901767151764</v>
+      </c>
+      <c r="L106" s="32">
+        <v>315400000</v>
+      </c>
+      <c r="M106" s="32">
+        <v>461700000</v>
+      </c>
+      <c r="N106" s="32">
+        <v>467800000</v>
+      </c>
+      <c r="O106" s="32">
+        <v>1150000000</v>
+      </c>
+      <c r="P106" s="32">
+        <v>1644000000</v>
+      </c>
+      <c r="Q106" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="R106" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="S104" s="66"/>
-    </row>
-    <row r="105" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>1.4533596639078263</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-0.75795064779258337</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.95155789964203263</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-1.0835296032995061</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>7.3390072765072762</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:K105" si="8">(H106/G106)-1</f>
-        <v>0.44486342459136452</v>
-      </c>
-      <c r="I105" s="15">
-        <f>(I106/H106)-1</f>
-        <v>-6.5784507209332155E-4</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.3220382880452379</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.97860901767151764</v>
-      </c>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="S105" s="27">
-        <f>(S100*S92)+(S102*S97)</f>
-        <v>9.0750564004150075E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="S106" s="45">
+        <f>(SUM(L4:P4)/5)</f>
+        <v>0.18737093927521525</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1">
         <v>-79502000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>-195047000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>-47211000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>-92135000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>7696000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>64177000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>92727000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>92666000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>307840000</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>609095000</v>
       </c>
-      <c r="L106" s="40">
-        <f>K106*(1+$S$106)</f>
-        <v>697156798.4289372</v>
-      </c>
-      <c r="M106" s="40">
-        <f t="shared" ref="M106:P106" si="9">L106*(1+$S$106)</f>
-        <v>797950404.44542432</v>
-      </c>
-      <c r="N106" s="40">
-        <f t="shared" si="9"/>
-        <v>913316558.61277401</v>
-      </c>
-      <c r="O106" s="40">
-        <f t="shared" si="9"/>
-        <v>1045362132.2693771</v>
-      </c>
-      <c r="P106" s="40">
-        <f t="shared" si="9"/>
-        <v>1196498604.2107818</v>
-      </c>
-      <c r="Q106" s="41" t="s">
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="64">
+        <f>P106*(1+S107)/(S108-S107)</f>
+        <v>25470233522.624977</v>
+      </c>
+      <c r="Q107" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="R106" s="42" t="s">
+      <c r="R107" s="46" t="s">
         <v>147</v>
-      </c>
-      <c r="S106" s="43">
-        <f>(SUM(L4:P4)/5)</f>
-        <v>0.1445781010005617</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="41"/>
-      <c r="N107" s="41"/>
-      <c r="O107" s="41"/>
-      <c r="P107" s="44">
-        <f>P106*(1+S107)/(S108-S107)</f>
-        <v>18652479836.350025</v>
-      </c>
-      <c r="Q107" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="R107" s="46" t="s">
-        <v>149</v>
       </c>
       <c r="S107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="L108" s="44">
-        <f t="shared" ref="L108:N108" si="10">L107+L106</f>
-        <v>697156798.4289372</v>
-      </c>
-      <c r="M108" s="44">
-        <f t="shared" si="10"/>
-        <v>797950404.44542432</v>
-      </c>
-      <c r="N108" s="44">
-        <f t="shared" si="10"/>
-        <v>913316558.61277401</v>
-      </c>
-      <c r="O108" s="44">
+      <c r="L108" s="64">
+        <f t="shared" ref="L108:N108" si="14">L107+L106</f>
+        <v>315400000</v>
+      </c>
+      <c r="M108" s="64">
+        <f t="shared" si="14"/>
+        <v>461700000</v>
+      </c>
+      <c r="N108" s="64">
+        <f t="shared" si="14"/>
+        <v>467800000</v>
+      </c>
+      <c r="O108" s="64">
         <f>O107+O106</f>
-        <v>1045362132.2693771</v>
-      </c>
-      <c r="P108" s="44">
+        <v>1150000000</v>
+      </c>
+      <c r="P108" s="64">
         <f>P107+P106</f>
-        <v>19848978440.560806</v>
-      </c>
-      <c r="Q108" s="45" t="s">
-        <v>144</v>
+        <v>27114233522.624977</v>
+      </c>
+      <c r="Q108" s="30" t="s">
+        <v>143</v>
       </c>
       <c r="R108" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="S108" s="45">
+        <f>S105</f>
+        <v>9.1159581870466203E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="L109" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="M109" s="66"/>
+    </row>
+    <row r="110" spans="1:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="L110" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="S108" s="49">
-        <f>S105</f>
-        <v>9.0750564004150075E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="L109" s="61" t="s">
+      <c r="M110" s="40">
+        <f>NPV(S108,L108,M108,N108,O108,P108)</f>
+        <v>19377089953.656654</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="L111" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="M109" s="62"/>
-    </row>
-    <row r="110" spans="1:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="L110" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="M110" s="51">
-        <f>NPV(S108,L108,M108,N108,O108,P108)</f>
-        <v>15608315824.556616</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="L111" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="M111" s="51">
+      <c r="M111" s="40">
         <f>K40</f>
         <v>1582206000</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="L112" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="M112" s="51">
+      <c r="L112" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="M112" s="40">
         <f>S99</f>
         <v>750686000</v>
       </c>
     </row>
     <row r="113" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L113" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="M113" s="51">
+      <c r="L113" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="M113" s="40">
         <f>M110+M111-M112</f>
-        <v>16439835824.556618</v>
+        <v>20208609953.656654</v>
       </c>
     </row>
     <row r="114" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L114" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="M114" s="52">
+      <c r="L114" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="M114" s="49">
         <f>K34*(1+(5*Q16))</f>
         <v>414935400.54104507</v>
       </c>
     </row>
     <row r="115" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L115" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="M115" s="54">
+      <c r="L115" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="M115" s="51">
         <f>M113/M114</f>
-        <v>39.620229566145206</v>
+        <v>48.703026850218421</v>
       </c>
     </row>
     <row r="116" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L116" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="M116" s="60" cm="1">
+      <c r="L116" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="M116" s="52" cm="1">
         <f t="array" ref="M116">_FV(A1,"Price",TRUE)</f>
         <v>35.909999999999997</v>
       </c>
     </row>
     <row r="117" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L117" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="M117" s="56">
+      <c r="L117" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="M117" s="53">
         <f>M115/M116-1</f>
-        <v>0.10332023297536086</v>
+        <v>0.35625248817093924</v>
       </c>
     </row>
     <row r="118" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L118" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="M118" s="57" t="str">
+      <c r="L118" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="M118" s="54" t="str">
         <f>IF(M115&gt;M116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -7290,8 +7644,9 @@
     <hyperlink ref="K36" r:id="rId20" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
     <hyperlink ref="K74" r:id="rId21" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="L1" r:id="rId22" display="https://finbox.com/NYSE:PSTG/explorer/revenue_proj" xr:uid="{A9DEDE09-C4A9-9C40-BEA7-4C2BE37AC77F}"/>
+    <hyperlink ref="Q106" r:id="rId23" xr:uid="{407146D8-588C-BE4C-A71D-E740123BCC13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId23"/>
+  <drawing r:id="rId24"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Pure Storage.xlsx
+++ b/Technology/Hardware/Pure Storage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6673D3C9-DA2F-BD4B-9D15-0F7AE1A270CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C7A115-82BF-134B-9AA4-7779770F800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1005,6 +1005,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1017,7 +1018,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2272,9 +2272,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Top 10"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="High Quality"/>
       <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
       <sheetName val="Aggressive Growth"/>
@@ -2285,7 +2286,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.0239999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2305,6 +2306,7 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2430,13 +2432,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>38.36</v>
+    <v>39.19</v>
     <v>22.14</v>
-    <v>1.2386999999999999</v>
-    <v>0.35</v>
-    <v>9.8429999999999993E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.2623</v>
+    <v>-0.79</v>
+    <v>-2.1368999999999999E-2</v>
     <v>USD</v>
     <v>Pure Storage, Inc. is focused on delivering disruptive data storage, products and services. The Company’s products and subscription services support a range of structured and unstructured data, at scale and across any data workload in hybrid and public cloud environments and include production, test and development, analytics, disaster recovery (DR), and backup and recovery. Its products and subscription services include FlashArray Platform, Cloud Block Store, FlashBlade Platform, Evergreen Subscription, Evergreen//Flex, Evergreen//One, Pure Fusion, Portworx by Pure Storage and Portworx Data Services (PDS). It sells its products and subscription services using a direct sales force and its channel partners. It also sells to service providers that deploy its products and offer cloud-based storage services to their customers. FlashArray Platform provides solutions for block-oriented storage, addressing databases, applications, virtual machines and other traditional workloads.</v>
     <v>5200</v>
@@ -2444,25 +2444,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2555 Augustine Drive, SANTA CLARA, CA, 95054 US</v>
-    <v>36.14</v>
+    <v>37</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45104.97707070547</v>
+    <v>45147.996715705471</v>
     <v>0</v>
-    <v>35.655000000000001</v>
-    <v>11043502847</v>
+    <v>35.615000000000002</v>
+    <v>11126536704</v>
     <v>PURE STORAGE, INC.</v>
     <v>PURE STORAGE, INC.</v>
-    <v>35.840000000000003</v>
+    <v>36.97</v>
     <v>190.45150000000001</v>
-    <v>35.56</v>
-    <v>35.909999999999997</v>
-    <v>35.909999999999997</v>
+    <v>36.97</v>
+    <v>36.18</v>
     <v>307532800</v>
     <v>PSTG</v>
     <v>PURE STORAGE, INC. (XNYS:PSTG)</v>
-    <v>3002362</v>
-    <v>6278225</v>
+    <v>2</v>
+    <v>3150095</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2494,8 +2493,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2516,7 +2513,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2533,7 +2529,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2544,16 +2540,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2619,19 +2612,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2676,9 +2663,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2686,9 +2670,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3053,7 +3034,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="J84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P102" sqref="P102"/>
+      <selection pane="bottomRight" activeCell="N99" sqref="N99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3863,15 +3844,15 @@
       </c>
       <c r="R16" s="55">
         <f>S101/K3</f>
-        <v>4.0108108082488991</v>
+        <v>4.0409672808572861</v>
       </c>
       <c r="S16" s="55">
         <f>S101/K28</f>
-        <v>151.13386770401391</v>
+        <v>152.2702125877571</v>
       </c>
       <c r="T16" s="56">
         <f>S101/K107</f>
-        <v>18.131002301775585</v>
+        <v>18.267325629006969</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -4011,15 +3992,15 @@
       </c>
       <c r="R19" s="55">
         <f>S101/L3</f>
-        <v>3.7359617209066305</v>
+        <v>3.764051658998647</v>
       </c>
       <c r="S19" s="55">
         <f>S101/L28</f>
-        <v>24.83918769005848</v>
+        <v>25.025948502024292</v>
       </c>
       <c r="T19" s="56">
         <f>S101/L106</f>
-        <v>35.014276623335448</v>
+        <v>35.277541864299302</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4184,7 +4165,7 @@
       </c>
       <c r="T22" s="58">
         <f>K107/S101</f>
-        <v>5.5154148863687975E-2</v>
+        <v>5.4742550732882568E-2</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -6412,10 +6393,10 @@
       <c r="K83" s="1">
         <v>-12562000</v>
       </c>
-      <c r="R83" s="67" t="s">
+      <c r="R83" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="S83" s="68"/>
+      <c r="S83" s="69"/>
     </row>
     <row r="84" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6451,10 +6432,10 @@
       <c r="K84" s="1">
         <v>-7075000</v>
       </c>
-      <c r="R84" s="69" t="s">
+      <c r="R84" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="S84" s="69"/>
+      <c r="S84" s="70"/>
     </row>
     <row r="85" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6839,10 +6820,10 @@
       <c r="K93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R93" s="69" t="s">
+      <c r="R93" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="S93" s="69"/>
+      <c r="S93" s="70"/>
     </row>
     <row r="94" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6881,9 +6862,9 @@
       <c r="R94" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="S94" s="70">
+      <c r="S94" s="66">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.0239999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6925,7 +6906,7 @@
       </c>
       <c r="S95" s="39" cm="1">
         <f t="array" ref="S95">_FV(A1,"Beta")</f>
-        <v>1.2386999999999999</v>
+        <v>1.2623</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7008,7 +6989,7 @@
       </c>
       <c r="S97" s="36">
         <f>(S94)+((S95)*(S96-S94))</f>
-        <v>9.4712856000000012E-2</v>
+        <v>9.5478248000000016E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7045,10 +7026,10 @@
       <c r="K98" s="1">
         <v>0</v>
       </c>
-      <c r="R98" s="69" t="s">
+      <c r="R98" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="S98" s="69"/>
+      <c r="S98" s="70"/>
     </row>
     <row r="99" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7131,7 +7112,7 @@
       </c>
       <c r="S100" s="36">
         <f>S99/S103</f>
-        <v>6.3648802790786788E-2</v>
+        <v>6.3203832975800373E-2</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7173,7 +7154,7 @@
       </c>
       <c r="S101" s="40" cm="1">
         <f t="array" ref="S101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11043502847</v>
+        <v>11126536704</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7215,7 +7196,7 @@
       </c>
       <c r="S102" s="36">
         <f>S101/S103</f>
-        <v>0.93635119720921323</v>
+        <v>0.93679616702419966</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7257,7 +7238,7 @@
       </c>
       <c r="S103" s="41">
         <f>S99+S101</f>
-        <v>11794188847</v>
+        <v>11877222704</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7294,10 +7275,10 @@
       <c r="K104" s="11">
         <v>591398000</v>
       </c>
-      <c r="R104" s="69" t="s">
+      <c r="R104" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="S104" s="69"/>
+      <c r="S104" s="70"/>
     </row>
     <row r="105" spans="1:19" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7371,7 +7352,7 @@
       </c>
       <c r="S105" s="43">
         <f>(S100*S92)+(S102*S97)</f>
-        <v>9.1159581870466203E-2</v>
+        <v>9.1901439159538842E-2</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7481,7 +7462,7 @@
       <c r="O107" s="29"/>
       <c r="P107" s="64">
         <f>P106*(1+S107)/(S108-S107)</f>
-        <v>25470233522.624977</v>
+        <v>25187798964.70639</v>
       </c>
       <c r="Q107" s="30" t="s">
         <v>146</v>
@@ -7512,7 +7493,7 @@
       </c>
       <c r="P108" s="64">
         <f>P107+P106</f>
-        <v>27114233522.624977</v>
+        <v>26831798964.70639</v>
       </c>
       <c r="Q108" s="30" t="s">
         <v>143</v>
@@ -7522,14 +7503,14 @@
       </c>
       <c r="S108" s="45">
         <f>S105</f>
-        <v>9.1159581870466203E-2</v>
+        <v>9.1901439159538842E-2</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="L109" s="66" t="s">
+      <c r="L109" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="M109" s="66"/>
+      <c r="M109" s="67"/>
     </row>
     <row r="110" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="L110" s="49" t="s">
@@ -7537,7 +7518,7 @@
       </c>
       <c r="M110" s="40">
         <f>NPV(S108,L108,M108,N108,O108,P108)</f>
-        <v>19377089953.656654</v>
+        <v>19131994065.919079</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7564,7 +7545,7 @@
       </c>
       <c r="M113" s="40">
         <f>M110+M111-M112</f>
-        <v>20208609953.656654</v>
+        <v>19963514065.919079</v>
       </c>
     </row>
     <row r="114" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7582,7 +7563,7 @@
       </c>
       <c r="M115" s="51">
         <f>M113/M114</f>
-        <v>48.703026850218421</v>
+        <v>48.112342402909306</v>
       </c>
     </row>
     <row r="116" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7591,7 +7572,7 @@
       </c>
       <c r="M116" s="52" cm="1">
         <f t="array" ref="M116">_FV(A1,"Price",TRUE)</f>
-        <v>35.909999999999997</v>
+        <v>36.18</v>
       </c>
     </row>
     <row r="117" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7600,7 +7581,7 @@
       </c>
       <c r="M117" s="53">
         <f>M115/M116-1</f>
-        <v>0.35625248817093924</v>
+        <v>0.32980493098146235</v>
       </c>
     </row>
     <row r="118" spans="12:13" ht="20" x14ac:dyDescent="0.25">
